--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>104077</v>
+        <v>104078</v>
       </c>
       <c r="D48" t="n">
         <v>11329</v>
       </c>
       <c r="E48" t="n">
-        <v>624972453</v>
+        <v>624994490</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>61057</v>
+        <v>61058</v>
       </c>
       <c r="D65" t="n">
         <v>6617</v>
       </c>
       <c r="E65" t="n">
-        <v>334110739</v>
+        <v>334115122</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26163</v>
+        <v>26166</v>
       </c>
       <c r="D81" t="n">
         <v>2828</v>
       </c>
       <c r="E81" t="n">
-        <v>165085493</v>
+        <v>165097918</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136574</v>
+        <v>136576</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863127835</v>
+        <v>863132204</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -6970,13 +6970,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>26948</v>
+        <v>26949</v>
       </c>
       <c r="D160" t="n">
-        <v>11392</v>
+        <v>11393</v>
       </c>
       <c r="E160" t="n">
-        <v>37313891</v>
+        <v>37313966</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50578</v>
+        <v>50579</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168928517</v>
+        <v>168930017</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285050</v>
+        <v>285052</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1211702520</v>
+        <v>1211795750</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562623</v>
+        <v>562628</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285095526</v>
+        <v>1285106339</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367450</v>
+        <v>367457</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2846827078</v>
+        <v>2846922007</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115181</v>
+        <v>115187</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>447377985</v>
+        <v>447452079</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357276</v>
+        <v>357282</v>
       </c>
       <c r="D174" t="n">
-        <v>69789</v>
+        <v>69790</v>
       </c>
       <c r="E174" t="n">
-        <v>1018783698</v>
+        <v>1018803967</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75360</v>
+        <v>75361</v>
       </c>
       <c r="D178" t="n">
         <v>28756</v>
       </c>
       <c r="E178" t="n">
-        <v>102747363</v>
+        <v>102748863</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235739</v>
+        <v>235741</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813056826</v>
+        <v>813061344</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141501</v>
+        <v>141503</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341105088</v>
+        <v>341108088</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -11152,13 +11152,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>38983</v>
+        <v>38984</v>
       </c>
       <c r="D262" t="n">
         <v>8167</v>
       </c>
       <c r="E262" t="n">
-        <v>124718156</v>
+        <v>124727562</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11234,13 +11234,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>47471</v>
+        <v>47472</v>
       </c>
       <c r="D264" t="n">
         <v>7784</v>
       </c>
       <c r="E264" t="n">
-        <v>81946515</v>
+        <v>81956515</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>28962</v>
+        <v>28965</v>
       </c>
       <c r="D279" t="n">
         <v>6571</v>
       </c>
       <c r="E279" t="n">
-        <v>57070676</v>
+        <v>57087380</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -13202,13 +13202,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>75101</v>
+        <v>75102</v>
       </c>
       <c r="D312" t="n">
         <v>9352</v>
       </c>
       <c r="E312" t="n">
-        <v>201149936</v>
+        <v>201349936</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>67242</v>
+        <v>67243</v>
       </c>
       <c r="D320" t="n">
         <v>10280</v>
       </c>
       <c r="E320" t="n">
-        <v>124555815</v>
+        <v>124557315</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
